--- a/data/trans_dic/P19C06-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Dificultad-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009599289570223359</v>
+        <v>0.00898432594855819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004501419087242036</v>
+        <v>0.004498196316468689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007016051590975597</v>
+        <v>0.007010295801095892</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.008139889909216675</v>
+        <v>0.00836864875217553</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00989055160561989</v>
+        <v>0.008972155178916268</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008375950808111479</v>
+        <v>0.009654401582198489</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004795194599065275</v>
+        <v>0.005333628949284241</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01056285087051764</v>
+        <v>0.01044924670454506</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008637155980702816</v>
+        <v>0.008878520172475941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009871967455301257</v>
+        <v>0.009783759278111474</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002629693132741826</v>
+        <v>0.002899855407177719</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03833625066413173</v>
+        <v>0.0399433555602918</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01940058889807536</v>
+        <v>0.0195143707733588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02523734348417971</v>
+        <v>0.02479936854440831</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.0275452990465412</v>
+        <v>0.02636629148322122</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02662290403805871</v>
+        <v>0.02561357130702133</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02678908149636234</v>
+        <v>0.02588640510250762</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02053613375683258</v>
+        <v>0.02042192515917614</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0258050676547423</v>
+        <v>0.02626330635809234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02020515013153203</v>
+        <v>0.02026312040901903</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02289022094709124</v>
+        <v>0.02192820018174212</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01143900408836132</v>
+        <v>0.01108320536936001</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004521978401289178</v>
+        <v>0.00449669330865095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006841535289928289</v>
+        <v>0.006297604815353095</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003674258177941637</v>
+        <v>0.002947286546559631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003453965294717933</v>
+        <v>0.003156272923842273</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002235336437871173</v>
+        <v>0.002211233208009328</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007512899809669578</v>
+        <v>0.00739236044422579</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002854847393276623</v>
+        <v>0.002582328759915076</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006375500176187877</v>
+        <v>0.00664336966527041</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004077463468071916</v>
+        <v>0.00398196076051335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008572129931231135</v>
+        <v>0.008701996303266957</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004619123362610026</v>
+        <v>0.004560376960763773</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.00608907198683732</v>
+        <v>0.006169217367672119</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01828959927344213</v>
+        <v>0.01779145073956575</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02537176893251367</v>
+        <v>0.02500046825253795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02070063145834553</v>
+        <v>0.01986061745962571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01693992642179328</v>
+        <v>0.0166207677454934</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0125526884898466</v>
+        <v>0.01278925849926356</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02350733071136588</v>
+        <v>0.02389125184605285</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01672580210719767</v>
+        <v>0.01639718091348828</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.016744594248776</v>
+        <v>0.01684949059829167</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01278134320685464</v>
+        <v>0.01241043125995592</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02041851081068778</v>
+        <v>0.02071811146513943</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01437867464645556</v>
+        <v>0.01403575549269917</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0143521143642408</v>
+        <v>0.01436345918294899</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00231042598253005</v>
+        <v>0.00235092558151127</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00590133056715784</v>
+        <v>0.00609904747543658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00838811203293658</v>
+        <v>0.008399220305951756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006365184213675643</v>
+        <v>0.006041163888168234</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004604543407847422</v>
+        <v>0.00456544833037148</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007691458648143711</v>
+        <v>0.007833897364055461</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01131106099255715</v>
+        <v>0.01253767333549794</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006003785557794262</v>
+        <v>0.005834657877733079</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00444924224358426</v>
+        <v>0.004492090475481105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008475182679391022</v>
+        <v>0.008193157685155914</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01187122629732557</v>
+        <v>0.01246391778276698</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.007566613692965346</v>
+        <v>0.007426819160844636</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0135117130393381</v>
+        <v>0.01397867628846038</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02226932438381041</v>
+        <v>0.02390728989107509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03028191472028429</v>
+        <v>0.03131056334778016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02411823384929916</v>
+        <v>0.02289135725227914</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01758014646439945</v>
+        <v>0.01737155491876111</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02681651627506933</v>
+        <v>0.02588279362462562</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03392945795212158</v>
+        <v>0.03576611055101719</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01631278056796007</v>
+        <v>0.01661533746077908</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01272700181567328</v>
+        <v>0.01275908405853407</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02047208582243151</v>
+        <v>0.02055952515357778</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0271989312311753</v>
+        <v>0.02824960241044219</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01683061135727447</v>
+        <v>0.01731294355896801</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.006031742034704256</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009177281896559808</v>
+        <v>0.00917728189655981</v>
       </c>
     </row>
     <row r="14">
@@ -1112,38 +1112,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00580489696331578</v>
+        <v>0.005781788053837311</v>
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002518947346332978</v>
+        <v>0.002204593947931233</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006580516628715925</v>
+        <v>0.006737549033761294</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002340469260710033</v>
+        <v>0.00235821801180857</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.002171781188895095</v>
+        <v>0.002188825006706197</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007022821062717406</v>
+        <v>0.0068328698201504</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008634632474089346</v>
+        <v>0.008084557126274556</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.001133323149953099</v>
+        <v>0.001130674723192162</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002249720428858895</v>
+        <v>0.002373941704578476</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.005991276143348804</v>
+        <v>0.005898576949837805</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03558456790667092</v>
+        <v>0.03768878806406129</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01672848182451805</v>
+        <v>0.0155649071038183</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01268347786116468</v>
+        <v>0.0130622814913413</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04125091571080083</v>
+        <v>0.03909134391228185</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01912690161927855</v>
+        <v>0.02125998857232817</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02109817592240014</v>
+        <v>0.02037576789812745</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02209729203325335</v>
+        <v>0.02149505056100539</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03055319271245998</v>
+        <v>0.02970899810713408</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.009274600290921196</v>
+        <v>0.008133893212492336</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01372076956846349</v>
+        <v>0.01383157729632573</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01460553702887127</v>
+        <v>0.01415589510880511</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.01195028694364265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.007526472059168204</v>
+        <v>0.007526472059168205</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01070790455162132</v>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006969949815065257</v>
+        <v>0.007379400503646414</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.006615992396919082</v>
+        <v>0.006667511560563664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008025186796480089</v>
+        <v>0.007918598584744014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005017785847639067</v>
+        <v>0.004900058252558048</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.007303080284947308</v>
+        <v>0.007148223121357299</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01008414816908112</v>
+        <v>0.01027775274955799</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009466596779809447</v>
+        <v>0.009565038347900869</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008393563491009006</v>
+        <v>0.008385861242307124</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00832923019592288</v>
+        <v>0.008334254103018844</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.009615198784798575</v>
+        <v>0.009303047125715811</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.009954322097523399</v>
+        <v>0.009965730610239655</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.007408470562795946</v>
+        <v>0.007288133684726909</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01611464981654015</v>
+        <v>0.01577399138201534</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01453790272512989</v>
+        <v>0.01452684145465656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01681196033123109</v>
+        <v>0.01712622720507751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01211151180797406</v>
+        <v>0.01192183406247447</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01520166321100205</v>
+        <v>0.01522237495406738</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01902365960921873</v>
+        <v>0.01885147649525171</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01809954016585882</v>
+        <v>0.01839647454750664</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01429559951659588</v>
+        <v>0.01431987840469368</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01418176054082977</v>
+        <v>0.01380785980205203</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01562210705363152</v>
+        <v>0.01505235587031865</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01607957233121493</v>
+        <v>0.01624329647730187</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01166230769556401</v>
+        <v>0.0117858227550225</v>
       </c>
     </row>
     <row r="19">
@@ -1592,38 +1592,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3801</v>
+        <v>3557</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5503</v>
+        <v>5499</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>5947</v>
+        <v>6114</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9361</v>
+        <v>8491</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7729</v>
+        <v>8908</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2825</v>
+        <v>3143</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11899</v>
+        <v>11771</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15303</v>
+        <v>15731</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16852</v>
+        <v>16702</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2739</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="7">
@@ -1634,38 +1634,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15178</v>
+        <v>15814</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16013</v>
+        <v>16107</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19795</v>
+        <v>19452</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>20125</v>
+        <v>19263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25197</v>
+        <v>24241</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24719</v>
+        <v>23886</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12100</v>
+        <v>12032</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29070</v>
+        <v>29586</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35800</v>
+        <v>35903</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>39075</v>
+        <v>37433</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11913</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="8">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3614</v>
+        <v>3593</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5752</v>
+        <v>5295</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2625</v>
+        <v>2105</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3182</v>
+        <v>2907</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1900</v>
+        <v>1879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7233</v>
+        <v>7117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2406</v>
+        <v>2176</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6931</v>
+        <v>7222</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6724</v>
+        <v>6567</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15460</v>
+        <v>15694</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7192</v>
+        <v>7101</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12229</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="11">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14616</v>
+        <v>14218</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21332</v>
+        <v>21020</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14787</v>
+        <v>14187</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15605</v>
+        <v>15311</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10669</v>
+        <v>10870</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22632</v>
+        <v>23002</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14095</v>
+        <v>13818</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18204</v>
+        <v>18318</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>21077</v>
+        <v>20466</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>36826</v>
+        <v>37366</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22388</v>
+        <v>21854</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28823</v>
+        <v>28846</v>
       </c>
     </row>
     <row r="12">
@@ -1948,40 +1948,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2060</v>
+        <v>2096</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4602</v>
+        <v>4756</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6007</v>
+        <v>6015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6524</v>
+        <v>6192</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3820</v>
+        <v>3788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6200</v>
+        <v>6315</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7454</v>
+        <v>8262</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6185</v>
+        <v>6010</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7658</v>
+        <v>7732</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13441</v>
+        <v>12993</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16324</v>
+        <v>17139</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>15550</v>
+        <v>15262</v>
       </c>
     </row>
     <row r="15">
@@ -1992,40 +1992,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12046</v>
+        <v>12463</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17365</v>
+        <v>18642</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21685</v>
+        <v>22421</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24719</v>
+        <v>23462</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14585</v>
+        <v>14412</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21617</v>
+        <v>20864</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22358</v>
+        <v>23569</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16804</v>
+        <v>17116</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21905</v>
+        <v>21961</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>32466</v>
+        <v>32605</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37400</v>
+        <v>38845</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34587</v>
+        <v>35578</v>
       </c>
     </row>
     <row r="16">
@@ -2128,38 +2128,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2393</v>
+        <v>2094</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1833</v>
+        <v>1877</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6185</v>
+        <v>6018</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5341</v>
+        <v>5001</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1937</v>
+        <v>2044</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10968</v>
+        <v>10799</v>
       </c>
     </row>
     <row r="19">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12097</v>
+        <v>12813</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>7189</v>
+        <v>6689</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12049</v>
+        <v>12409</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11493</v>
+        <v>10892</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7946</v>
+        <v>8833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9101</v>
+        <v>8789</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19462</v>
+        <v>18932</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18900</v>
+        <v>18378</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>8066</v>
+        <v>7074</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11815</v>
+        <v>11910</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>26739</v>
+        <v>25916</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16913</v>
+        <v>17906</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19187</v>
+        <v>19337</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21223</v>
+        <v>20941</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16801</v>
+        <v>16407</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19636</v>
+        <v>19220</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31571</v>
+        <v>32177</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>27034</v>
+        <v>27315</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>30109</v>
+        <v>30082</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>42607</v>
+        <v>42633</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>57988</v>
+        <v>56106</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>54751</v>
+        <v>54814</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>51382</v>
+        <v>50547</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39103</v>
+        <v>38276</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42162</v>
+        <v>42130</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44460</v>
+        <v>45291</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>40554</v>
+        <v>39919</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>40874</v>
+        <v>40930</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>59558</v>
+        <v>59019</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>51687</v>
+        <v>52535</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>51281</v>
+        <v>51368</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>72545</v>
+        <v>70632</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>94215</v>
+        <v>90779</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>88442</v>
+        <v>89342</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>80884</v>
+        <v>81741</v>
       </c>
     </row>
     <row r="24">
